--- a/FPGA/States_table.xlsx
+++ b/FPGA/States_table.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MrTea\workspace_v10\SKJEE\FPGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Politechnika\FPGA_DSP\FPGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2788193A-E832-4FC6-9B28-A2E493AB92E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14640" windowHeight="11268" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kalman" sheetId="1" r:id="rId1"/>
     <sheet name="Resonant" sheetId="4" r:id="rId2"/>
     <sheet name="Resonant grid" sheetId="5" r:id="rId3"/>
+    <sheet name="PLL" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1135" uniqueCount="123">
   <si>
     <t>Kalman state machine</t>
   </si>
@@ -355,12 +357,63 @@
   </si>
   <si>
     <t>harmonics_inc &lt;= 1'b1; if(!harmonic_end) cnt &lt;= 6'd38;</t>
+  </si>
+  <si>
+    <t>Yp</t>
+  </si>
+  <si>
+    <t>AA_M0L</t>
+  </si>
+  <si>
+    <t>AB_MOH</t>
+  </si>
+  <si>
+    <t>BA_M0H</t>
+  </si>
+  <si>
+    <t>BB_M1H</t>
+  </si>
+  <si>
+    <t>BB_M0H</t>
+  </si>
+  <si>
+    <t>BB_RM0H</t>
+  </si>
+  <si>
+    <t>BB_RM0L</t>
+  </si>
+  <si>
+    <t>Ye_2</t>
+  </si>
+  <si>
+    <t>M_U_GRID</t>
+  </si>
+  <si>
+    <t>x_05</t>
+  </si>
+  <si>
+    <t>AB_M1H</t>
+  </si>
+  <si>
+    <t>BB_RM1L</t>
+  </si>
+  <si>
+    <t>HALF</t>
+  </si>
+  <si>
+    <t>AB_RM0H</t>
+  </si>
+  <si>
+    <t>val</t>
+  </si>
+  <si>
+    <t>RE1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;"/>
   </numFmts>
@@ -448,7 +501,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -786,12 +839,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -809,7 +873,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -878,7 +942,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -896,70 +960,70 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -971,16 +1035,7 @@
     <xf numFmtId="164" fontId="5" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -993,6 +1048,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1309,59 +1370,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
     <col min="7" max="10" width="8" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.88671875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="1"/>
+    <col min="11" max="11" width="6.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-    </row>
-    <row r="2" spans="1:19" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="68"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+    </row>
+    <row r="2" spans="1:19" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1414,7 +1475,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8">
         <v>0</v>
@@ -1453,7 +1514,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="19">
         <v>1</v>
@@ -1499,7 +1560,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="19">
         <v>2</v>
@@ -1543,7 +1604,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="19">
         <v>3</v>
@@ -1587,7 +1648,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="19">
         <v>4</v>
@@ -1631,7 +1692,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="19">
         <v>5</v>
@@ -1675,7 +1736,7 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="29"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="19">
         <v>6</v>
@@ -1717,7 +1778,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="19">
         <v>7</v>
@@ -1758,7 +1819,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="8">
         <v>8</v>
@@ -1801,7 +1862,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="8">
         <v>9</v>
@@ -1835,7 +1896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="8">
         <v>10</v>
@@ -1863,7 +1924,7 @@
       <c r="Q13" s="33"/>
       <c r="R13" s="17"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>11</v>
@@ -1917,7 +1978,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="19">
         <v>12</v>
@@ -1961,7 +2022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="19">
         <v>13</v>
@@ -2001,7 +2062,7 @@
       <c r="Q16" s="34"/>
       <c r="R16" s="23"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="19">
         <v>14</v>
@@ -2043,7 +2104,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="19">
         <v>15</v>
@@ -2089,7 +2150,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="19">
         <v>16</v>
@@ -2135,7 +2196,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="19">
         <v>17</v>
@@ -2181,7 +2242,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="19">
         <v>18</v>
@@ -2230,7 +2291,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="8">
         <v>19</v>
@@ -2265,7 +2326,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="8">
         <v>20</v>
@@ -2296,7 +2357,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="36">
         <v>21</v>
@@ -2318,7 +2379,7 @@
       <c r="Q24" s="42"/>
       <c r="R24" s="43"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="36">
         <v>22</v>
@@ -2340,7 +2401,7 @@
       <c r="Q25" s="50"/>
       <c r="R25" s="43"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="36">
         <v>23</v>
@@ -2362,7 +2423,7 @@
       <c r="Q26" s="38"/>
       <c r="R26" s="39"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
       <c r="B27" s="36">
         <v>24</v>
@@ -2410,7 +2471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
       <c r="B28" s="36">
         <v>25</v>
@@ -2464,7 +2525,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="36">
         <v>26</v>
@@ -2518,7 +2579,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="36">
         <v>27</v>
@@ -2572,7 +2633,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="36">
         <v>28</v>
@@ -2626,7 +2687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="36">
         <v>29</v>
@@ -2680,7 +2741,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="36">
         <v>30</v>
@@ -2734,7 +2795,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="51">
         <v>31</v>
@@ -2788,30 +2849,30 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B35" s="58"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
         <v>57</v>
       </c>
@@ -2828,59 +2889,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+      <selection activeCell="G9" sqref="G9:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
     <col min="7" max="10" width="8" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.88671875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="1"/>
+    <col min="11" max="11" width="6.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-    </row>
-    <row r="2" spans="1:19" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="68"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+    </row>
+    <row r="2" spans="1:19" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2933,7 +2994,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
       <c r="B3" s="8">
         <v>0</v>
@@ -2963,7 +3024,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="8">
         <v>1</v>
@@ -2993,7 +3054,7 @@
       <c r="Q4" s="33"/>
       <c r="R4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>2</v>
@@ -3015,7 +3076,7 @@
       <c r="Q5" s="33"/>
       <c r="R5" s="12"/>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
       <c r="B6" s="19">
         <v>3</v>
@@ -3059,7 +3120,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
       <c r="B7" s="19">
         <v>4</v>
@@ -3103,7 +3164,7 @@
       <c r="Q7" s="27"/>
       <c r="R7" s="29"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
       <c r="B8" s="19">
         <v>5</v>
@@ -3143,7 +3204,7 @@
       <c r="Q8" s="27"/>
       <c r="R8" s="29"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
       <c r="B9" s="19">
         <v>6</v>
@@ -3185,7 +3246,7 @@
       <c r="Q9" s="27"/>
       <c r="R9" s="23"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="19">
         <v>7</v>
@@ -3217,7 +3278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="19">
         <v>8</v>
@@ -3263,7 +3324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="19">
         <v>9</v>
@@ -3307,7 +3368,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="19">
         <v>10</v>
@@ -3349,7 +3410,7 @@
       <c r="Q13" s="27"/>
       <c r="R13" s="23"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="19">
         <v>11</v>
@@ -3391,7 +3452,7 @@
       <c r="Q14" s="27"/>
       <c r="R14" s="23"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="19">
         <v>12</v>
@@ -3432,7 +3493,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>13</v>
@@ -3489,7 +3550,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="19">
         <v>14</v>
@@ -3537,7 +3598,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="19">
         <v>15</v>
@@ -3581,7 +3642,7 @@
       <c r="Q18" s="34"/>
       <c r="R18" s="23"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="19">
         <v>16</v>
@@ -3630,7 +3691,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
       <c r="B20" s="8">
         <v>17</v>
@@ -3667,7 +3728,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="8">
         <v>18</v>
@@ -3700,7 +3761,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="36">
         <v>19</v>
@@ -3722,7 +3783,7 @@
       <c r="Q22" s="50"/>
       <c r="R22" s="43"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="36">
         <v>20</v>
@@ -3744,7 +3805,7 @@
       <c r="Q23" s="42"/>
       <c r="R23" s="43"/>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
       <c r="B24" s="36">
         <v>21</v>
@@ -3766,7 +3827,7 @@
       <c r="Q24" s="50"/>
       <c r="R24" s="43"/>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="36">
         <v>22</v>
@@ -3788,7 +3849,7 @@
       <c r="Q25" s="38"/>
       <c r="R25" s="39"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="36">
         <v>23</v>
@@ -3814,7 +3875,7 @@
       <c r="Q26" s="42"/>
       <c r="R26" s="39"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
       <c r="B27" s="36">
         <v>24</v>
@@ -3862,7 +3923,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
       <c r="B28" s="36">
         <v>25</v>
@@ -3916,7 +3977,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
       <c r="B29" s="36">
         <v>26</v>
@@ -3970,7 +4031,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="36">
         <v>27</v>
@@ -4024,7 +4085,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="36">
         <v>28</v>
@@ -4078,7 +4139,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="36">
         <v>29</v>
@@ -4132,7 +4193,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="36">
         <v>30</v>
@@ -4186,7 +4247,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
       <c r="B34" s="51">
         <v>31</v>
@@ -4240,25 +4301,25 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B35" s="58"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B39" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
         <v>59</v>
       </c>
@@ -4274,59 +4335,59 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N5"/>
+    <sheetView zoomScale="79" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="1" customWidth="1"/>
     <col min="7" max="10" width="8" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5546875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="5.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.88671875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.6640625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.109375" style="1"/>
+    <col min="11" max="11" width="6.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="5.7109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="67" t="s">
+    <row r="1" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-    </row>
-    <row r="2" spans="1:19" ht="38.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="68"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+    </row>
+    <row r="2" spans="1:19" ht="38.450000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="65"/>
       <c r="B2" s="60">
         <v>-1</v>
       </c>
@@ -4379,9 +4440,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="61">
+      <c r="B3" s="8">
         <f t="shared" ref="B3:B4" si="0">B2+1</f>
         <v>0</v>
       </c>
@@ -4422,9 +4483,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
-      <c r="B4" s="61">
+      <c r="B4" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -4463,9 +4524,9 @@
       <c r="Q4" s="33"/>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
-      <c r="B5" s="61">
+      <c r="B5" s="8">
         <f t="shared" ref="B5:B6" si="1">B4+1</f>
         <v>2</v>
       </c>
@@ -4506,9 +4567,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="30"/>
-      <c r="B6" s="61">
+      <c r="B6" s="8">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -4556,9 +4617,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="30"/>
-      <c r="B7" s="62">
+      <c r="B7" s="19">
         <f>B6+1</f>
         <v>4</v>
       </c>
@@ -4585,9 +4646,9 @@
       <c r="Q7" s="34"/>
       <c r="R7" s="29"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="30"/>
-      <c r="B8" s="62">
+      <c r="B8" s="19">
         <f t="shared" ref="B8:B43" si="2">B7+1</f>
         <v>5</v>
       </c>
@@ -4629,9 +4690,9 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="30"/>
-      <c r="B9" s="61">
+      <c r="B9" s="8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -4663,7 +4724,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="30"/>
       <c r="B10" s="19">
         <f t="shared" si="2"/>
@@ -4708,7 +4769,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="30"/>
       <c r="B11" s="19">
         <f t="shared" si="2"/>
@@ -4753,7 +4814,7 @@
       <c r="Q11" s="27"/>
       <c r="R11" s="29"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="30"/>
       <c r="B12" s="19">
         <f t="shared" si="2"/>
@@ -4794,7 +4855,7 @@
       <c r="Q12" s="27"/>
       <c r="R12" s="29"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="19">
         <f t="shared" si="2"/>
@@ -4837,7 +4898,7 @@
       <c r="Q13" s="27"/>
       <c r="R13" s="23"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="19">
         <f t="shared" si="2"/>
@@ -4870,7 +4931,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="19">
         <f t="shared" si="2"/>
@@ -4917,7 +4978,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="19">
         <f t="shared" si="2"/>
@@ -4962,7 +5023,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="19">
         <f t="shared" si="2"/>
@@ -5005,7 +5066,7 @@
       <c r="Q17" s="27"/>
       <c r="R17" s="23"/>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="19">
         <f t="shared" si="2"/>
@@ -5048,7 +5109,7 @@
       <c r="Q18" s="27"/>
       <c r="R18" s="23"/>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="19">
         <f t="shared" si="2"/>
@@ -5090,9 +5151,9 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="7"/>
-      <c r="B20" s="61">
+      <c r="B20" s="8">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
@@ -5124,7 +5185,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="7"/>
       <c r="B21" s="19">
         <f t="shared" si="2"/>
@@ -5169,7 +5230,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="7"/>
       <c r="B22" s="19">
         <f t="shared" si="2"/>
@@ -5214,7 +5275,7 @@
       <c r="Q22" s="34"/>
       <c r="R22" s="23"/>
     </row>
-    <row r="23" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7"/>
       <c r="B23" s="19">
         <f t="shared" si="2"/>
@@ -5266,9 +5327,9 @@
         <v>102</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="7"/>
-      <c r="B24" s="61">
+      <c r="B24" s="8">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
@@ -5300,7 +5361,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="7"/>
       <c r="B25" s="19">
         <f t="shared" si="2"/>
@@ -5345,7 +5406,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="7"/>
       <c r="B26" s="19">
         <f t="shared" si="2"/>
@@ -5390,7 +5451,7 @@
       <c r="Q26" s="34"/>
       <c r="R26" s="29"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
       <c r="B27" s="19">
         <f t="shared" si="2"/>
@@ -5431,7 +5492,7 @@
       <c r="Q27" s="34"/>
       <c r="R27" s="29"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
       <c r="B28" s="19">
         <f t="shared" ref="B28" si="3">B27+1</f>
@@ -5473,9 +5534,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="7"/>
-      <c r="B29" s="61">
+      <c r="B29" s="8">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
@@ -5507,7 +5568,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
       <c r="B30" s="19">
         <f t="shared" si="2"/>
@@ -5552,7 +5613,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
       <c r="B31" s="19">
         <f t="shared" si="2"/>
@@ -5597,7 +5658,7 @@
       <c r="Q31" s="27"/>
       <c r="R31" s="29"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
       <c r="B32" s="19">
         <f t="shared" si="2"/>
@@ -5638,7 +5699,7 @@
       <c r="Q32" s="27"/>
       <c r="R32" s="29"/>
     </row>
-    <row r="33" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7"/>
       <c r="B33" s="19">
         <f t="shared" si="2"/>
@@ -5681,7 +5742,7 @@
       <c r="Q33" s="27"/>
       <c r="R33" s="23"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="7"/>
       <c r="B34" s="19">
         <f t="shared" si="2"/>
@@ -5714,7 +5775,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B35" s="19">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -5760,7 +5821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B36" s="19">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -5804,7 +5865,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B37" s="19">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -5846,7 +5907,7 @@
       <c r="Q37" s="27"/>
       <c r="R37" s="23"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B38" s="19">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -5888,7 +5949,7 @@
       <c r="Q38" s="27"/>
       <c r="R38" s="23"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B39" s="19">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -5929,8 +5990,8 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B40" s="61">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B40" s="8">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
@@ -5962,7 +6023,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B41" s="19">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -6010,7 +6071,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B42" s="19">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -6054,7 +6115,7 @@
       <c r="Q42" s="34"/>
       <c r="R42" s="23"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B43" s="19">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -6103,8 +6164,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B44" s="61">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="8">
         <f t="shared" ref="B44:B48" si="4">B43+1</f>
         <v>41</v>
       </c>
@@ -6140,8 +6201,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B45" s="61">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B45" s="8">
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
@@ -6170,8 +6231,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B46" s="63">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B46" s="36">
         <f t="shared" si="4"/>
         <v>43</v>
       </c>
@@ -6179,7 +6240,7 @@
       <c r="D46" s="45"/>
       <c r="E46" s="45"/>
       <c r="F46" s="43"/>
-      <c r="G46" s="64"/>
+      <c r="G46" s="61"/>
       <c r="H46" s="45"/>
       <c r="I46" s="44"/>
       <c r="J46" s="45"/>
@@ -6192,8 +6253,8 @@
       <c r="Q46" s="50"/>
       <c r="R46" s="43"/>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B47" s="63">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B47" s="36">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
@@ -6201,7 +6262,7 @@
       <c r="D47" s="45"/>
       <c r="E47" s="45"/>
       <c r="F47" s="43"/>
-      <c r="G47" s="64"/>
+      <c r="G47" s="61"/>
       <c r="H47" s="45"/>
       <c r="I47" s="44"/>
       <c r="J47" s="45"/>
@@ -6214,8 +6275,8 @@
       <c r="Q47" s="50"/>
       <c r="R47" s="43"/>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B48" s="63">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B48" s="36">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
@@ -6223,7 +6284,7 @@
       <c r="D48" s="45"/>
       <c r="E48" s="45"/>
       <c r="F48" s="43"/>
-      <c r="G48" s="64"/>
+      <c r="G48" s="61"/>
       <c r="H48" s="45"/>
       <c r="I48" s="44"/>
       <c r="J48" s="45"/>
@@ -6236,8 +6297,8 @@
       <c r="Q48" s="50"/>
       <c r="R48" s="43"/>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B49" s="63">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B49" s="36">
         <f t="shared" ref="B49" si="5">B48+1</f>
         <v>46</v>
       </c>
@@ -6245,7 +6306,7 @@
       <c r="D49" s="45"/>
       <c r="E49" s="45"/>
       <c r="F49" s="43"/>
-      <c r="G49" s="64"/>
+      <c r="G49" s="61"/>
       <c r="H49" s="45"/>
       <c r="I49" s="44"/>
       <c r="J49" s="45"/>
@@ -6258,8 +6319,8 @@
       <c r="Q49" s="50"/>
       <c r="R49" s="43"/>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B50" s="63">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B50" s="36">
         <f t="shared" ref="B50:B56" si="6">B49+1</f>
         <v>47</v>
       </c>
@@ -6267,7 +6328,7 @@
       <c r="D50" s="45"/>
       <c r="E50" s="45"/>
       <c r="F50" s="43"/>
-      <c r="G50" s="64"/>
+      <c r="G50" s="61"/>
       <c r="H50" s="45"/>
       <c r="I50" s="44"/>
       <c r="J50" s="45"/>
@@ -6280,8 +6341,8 @@
       <c r="Q50" s="50"/>
       <c r="R50" s="43"/>
     </row>
-    <row r="51" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B51" s="63">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B51" s="36">
         <f t="shared" si="6"/>
         <v>48</v>
       </c>
@@ -6289,7 +6350,7 @@
       <c r="D51" s="45"/>
       <c r="E51" s="45"/>
       <c r="F51" s="43"/>
-      <c r="G51" s="64"/>
+      <c r="G51" s="61"/>
       <c r="H51" s="45"/>
       <c r="I51" s="44"/>
       <c r="J51" s="45"/>
@@ -6302,8 +6363,8 @@
       <c r="Q51" s="50"/>
       <c r="R51" s="43"/>
     </row>
-    <row r="52" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B52" s="63">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B52" s="36">
         <f t="shared" si="6"/>
         <v>49</v>
       </c>
@@ -6311,7 +6372,7 @@
       <c r="D52" s="45"/>
       <c r="E52" s="45"/>
       <c r="F52" s="43"/>
-      <c r="G52" s="64"/>
+      <c r="G52" s="61"/>
       <c r="H52" s="45"/>
       <c r="I52" s="44"/>
       <c r="J52" s="45"/>
@@ -6324,8 +6385,8 @@
       <c r="Q52" s="50"/>
       <c r="R52" s="43"/>
     </row>
-    <row r="53" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B53" s="63">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B53" s="36">
         <f t="shared" si="6"/>
         <v>50</v>
       </c>
@@ -6333,7 +6394,7 @@
       <c r="D53" s="45"/>
       <c r="E53" s="45"/>
       <c r="F53" s="43"/>
-      <c r="G53" s="64"/>
+      <c r="G53" s="61"/>
       <c r="H53" s="45"/>
       <c r="I53" s="44"/>
       <c r="J53" s="45"/>
@@ -6346,8 +6407,8 @@
       <c r="Q53" s="50"/>
       <c r="R53" s="43"/>
     </row>
-    <row r="54" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B54" s="63">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B54" s="36">
         <f t="shared" si="6"/>
         <v>51</v>
       </c>
@@ -6355,7 +6416,7 @@
       <c r="D54" s="45"/>
       <c r="E54" s="45"/>
       <c r="F54" s="43"/>
-      <c r="G54" s="64"/>
+      <c r="G54" s="61"/>
       <c r="H54" s="45"/>
       <c r="I54" s="44"/>
       <c r="J54" s="45"/>
@@ -6368,8 +6429,8 @@
       <c r="Q54" s="50"/>
       <c r="R54" s="43"/>
     </row>
-    <row r="55" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B55" s="63">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B55" s="36">
         <f t="shared" si="6"/>
         <v>52</v>
       </c>
@@ -6377,7 +6438,7 @@
       <c r="D55" s="45"/>
       <c r="E55" s="45"/>
       <c r="F55" s="43"/>
-      <c r="G55" s="64"/>
+      <c r="G55" s="61"/>
       <c r="H55" s="45"/>
       <c r="I55" s="44"/>
       <c r="J55" s="45"/>
@@ -6390,8 +6451,8 @@
       <c r="Q55" s="50"/>
       <c r="R55" s="43"/>
     </row>
-    <row r="56" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B56" s="63">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B56" s="36">
         <f t="shared" si="6"/>
         <v>53</v>
       </c>
@@ -6399,7 +6460,7 @@
       <c r="D56" s="45"/>
       <c r="E56" s="45"/>
       <c r="F56" s="43"/>
-      <c r="G56" s="64"/>
+      <c r="G56" s="61"/>
       <c r="H56" s="45"/>
       <c r="I56" s="44"/>
       <c r="J56" s="45"/>
@@ -6412,8 +6473,8 @@
       <c r="Q56" s="50"/>
       <c r="R56" s="43"/>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B57" s="63">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B57" s="36">
         <f t="shared" ref="B57:B64" si="7">B56+1</f>
         <v>54</v>
       </c>
@@ -6421,7 +6482,7 @@
       <c r="D57" s="45"/>
       <c r="E57" s="45"/>
       <c r="F57" s="43"/>
-      <c r="G57" s="64"/>
+      <c r="G57" s="61"/>
       <c r="H57" s="45"/>
       <c r="I57" s="44"/>
       <c r="J57" s="45"/>
@@ -6434,8 +6495,8 @@
       <c r="Q57" s="50"/>
       <c r="R57" s="43"/>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B58" s="63">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B58" s="36">
         <f t="shared" si="7"/>
         <v>55</v>
       </c>
@@ -6443,7 +6504,7 @@
       <c r="D58" s="45"/>
       <c r="E58" s="45"/>
       <c r="F58" s="43"/>
-      <c r="G58" s="64"/>
+      <c r="G58" s="61"/>
       <c r="H58" s="45"/>
       <c r="I58" s="44"/>
       <c r="J58" s="45"/>
@@ -6456,8 +6517,8 @@
       <c r="Q58" s="50"/>
       <c r="R58" s="43"/>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B59" s="63">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B59" s="36">
         <f t="shared" si="7"/>
         <v>56</v>
       </c>
@@ -6465,7 +6526,7 @@
       <c r="D59" s="45"/>
       <c r="E59" s="45"/>
       <c r="F59" s="43"/>
-      <c r="G59" s="64"/>
+      <c r="G59" s="61"/>
       <c r="H59" s="45"/>
       <c r="I59" s="44"/>
       <c r="J59" s="45"/>
@@ -6478,8 +6539,8 @@
       <c r="Q59" s="50"/>
       <c r="R59" s="43"/>
     </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B60" s="63">
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B60" s="36">
         <f t="shared" si="7"/>
         <v>57</v>
       </c>
@@ -6487,7 +6548,7 @@
       <c r="D60" s="45"/>
       <c r="E60" s="45"/>
       <c r="F60" s="43"/>
-      <c r="G60" s="64"/>
+      <c r="G60" s="61"/>
       <c r="H60" s="45"/>
       <c r="I60" s="44"/>
       <c r="J60" s="45"/>
@@ -6500,8 +6561,8 @@
       <c r="Q60" s="50"/>
       <c r="R60" s="43"/>
     </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B61" s="63">
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B61" s="36">
         <f t="shared" si="7"/>
         <v>58</v>
       </c>
@@ -6509,7 +6570,7 @@
       <c r="D61" s="45"/>
       <c r="E61" s="45"/>
       <c r="F61" s="43"/>
-      <c r="G61" s="64"/>
+      <c r="G61" s="61"/>
       <c r="H61" s="45"/>
       <c r="I61" s="44"/>
       <c r="J61" s="45"/>
@@ -6522,8 +6583,8 @@
       <c r="Q61" s="50"/>
       <c r="R61" s="43"/>
     </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B62" s="63">
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B62" s="36">
         <f t="shared" si="7"/>
         <v>59</v>
       </c>
@@ -6531,7 +6592,7 @@
       <c r="D62" s="45"/>
       <c r="E62" s="45"/>
       <c r="F62" s="43"/>
-      <c r="G62" s="64"/>
+      <c r="G62" s="61"/>
       <c r="H62" s="45"/>
       <c r="I62" s="44"/>
       <c r="J62" s="45"/>
@@ -6544,8 +6605,8 @@
       <c r="Q62" s="50"/>
       <c r="R62" s="43"/>
     </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B63" s="63">
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B63" s="36">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
@@ -6553,7 +6614,7 @@
       <c r="D63" s="45"/>
       <c r="E63" s="45"/>
       <c r="F63" s="43"/>
-      <c r="G63" s="64"/>
+      <c r="G63" s="61"/>
       <c r="H63" s="45"/>
       <c r="I63" s="44"/>
       <c r="J63" s="45"/>
@@ -6566,8 +6627,8 @@
       <c r="Q63" s="50"/>
       <c r="R63" s="43"/>
     </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B64" s="63">
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B64" s="36">
         <f t="shared" si="7"/>
         <v>61</v>
       </c>
@@ -6575,7 +6636,7 @@
       <c r="D64" s="45"/>
       <c r="E64" s="45"/>
       <c r="F64" s="43"/>
-      <c r="G64" s="64"/>
+      <c r="G64" s="61"/>
       <c r="H64" s="45"/>
       <c r="I64" s="44"/>
       <c r="J64" s="45"/>
@@ -6588,8 +6649,8 @@
       <c r="Q64" s="50"/>
       <c r="R64" s="43"/>
     </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B65" s="63">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B65" s="36">
         <f t="shared" ref="B65:B66" si="8">B64+1</f>
         <v>62</v>
       </c>
@@ -6597,7 +6658,7 @@
       <c r="D65" s="45"/>
       <c r="E65" s="45"/>
       <c r="F65" s="43"/>
-      <c r="G65" s="64"/>
+      <c r="G65" s="61"/>
       <c r="H65" s="45"/>
       <c r="I65" s="44"/>
       <c r="J65" s="45"/>
@@ -6610,8 +6671,8 @@
       <c r="Q65" s="50"/>
       <c r="R65" s="43"/>
     </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B66" s="63">
+    <row r="66" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B66" s="36">
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
@@ -6619,7 +6680,7 @@
       <c r="D66" s="45"/>
       <c r="E66" s="45"/>
       <c r="F66" s="43"/>
-      <c r="G66" s="64"/>
+      <c r="G66" s="61"/>
       <c r="H66" s="45"/>
       <c r="I66" s="44"/>
       <c r="J66" s="45"/>
@@ -6632,22 +6693,22 @@
       <c r="Q66" s="50"/>
       <c r="R66" s="43"/>
     </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B69" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B73" s="1" t="s">
         <v>99</v>
       </c>
@@ -6660,4 +6721,1665 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A3E112-FC59-4512-A906-1DB0B294B6C4}">
+  <dimension ref="E4:V70"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="5:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="5:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="63"/>
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="63"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="63"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+    </row>
+    <row r="6" spans="5:22" ht="30" x14ac:dyDescent="0.25">
+      <c r="E6" s="60">
+        <v>-1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E7" s="19">
+        <f t="shared" ref="E7:E10" si="0">E6+1</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="20"/>
+      <c r="G7" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="N7" s="31"/>
+      <c r="O7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="29">
+        <v>0</v>
+      </c>
+      <c r="T7" s="67"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="29"/>
+    </row>
+    <row r="8" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E8" s="19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="N8" s="31"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" s="24"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="67"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E9" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F9" s="20"/>
+      <c r="G9" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="L9" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="N9" s="31"/>
+      <c r="O9" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="29">
+        <v>0</v>
+      </c>
+      <c r="T9" s="67"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="29"/>
+    </row>
+    <row r="10" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E10" s="19">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F10" s="26"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="N10" s="31"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="24"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="27"/>
+      <c r="V10" s="29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E11" s="19">
+        <f>E10+1</f>
+        <v>4</v>
+      </c>
+      <c r="F11" s="20"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="29"/>
+    </row>
+    <row r="12" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E12" s="19">
+        <f t="shared" ref="E12:E70" si="1">E11+1</f>
+        <v>5</v>
+      </c>
+      <c r="F12" s="26"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="23"/>
+    </row>
+    <row r="13" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E13" s="19">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="28"/>
+      <c r="S13" s="29"/>
+      <c r="T13" s="67"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="23"/>
+    </row>
+    <row r="14" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E14" s="19">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="67"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="29"/>
+    </row>
+    <row r="15" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E15" s="19">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="22"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="67"/>
+      <c r="U15" s="27"/>
+      <c r="V15" s="29"/>
+    </row>
+    <row r="16" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E16" s="19">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H16" s="22"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="N16" s="25"/>
+      <c r="O16" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="23">
+        <v>0</v>
+      </c>
+      <c r="T16" s="35">
+        <v>0</v>
+      </c>
+      <c r="U16" s="27"/>
+      <c r="V16" s="23"/>
+    </row>
+    <row r="17" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E17" s="19">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="M17" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="N17" s="25"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="R17" s="28"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="67"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E18" s="19">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="67"/>
+      <c r="U18" s="27"/>
+      <c r="V18" s="29"/>
+    </row>
+    <row r="19" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E19" s="19">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="27"/>
+      <c r="V19" s="23"/>
+    </row>
+    <row r="20" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E20" s="19">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="67"/>
+      <c r="U20" s="27"/>
+      <c r="V20" s="23"/>
+    </row>
+    <row r="21" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E21" s="19">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="67"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="23"/>
+    </row>
+    <row r="22" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E22" s="19">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="27"/>
+      <c r="V22" s="23"/>
+    </row>
+    <row r="23" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E23" s="19">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="28"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="27"/>
+      <c r="V23" s="23"/>
+    </row>
+    <row r="24" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E24" s="19">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="23"/>
+    </row>
+    <row r="25" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E25" s="19">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="28"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="27"/>
+      <c r="V25" s="29"/>
+    </row>
+    <row r="26" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E26" s="19">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="F26" s="26"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="28"/>
+      <c r="S26" s="23"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="23"/>
+    </row>
+    <row r="27" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E27" s="19">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="F27" s="26"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="29"/>
+    </row>
+    <row r="28" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E28" s="19">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="F28" s="26"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="23"/>
+    </row>
+    <row r="29" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E29" s="19">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="F29" s="20"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="67"/>
+      <c r="U29" s="27"/>
+      <c r="V29" s="23"/>
+    </row>
+    <row r="30" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E30" s="19">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="67"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="29"/>
+    </row>
+    <row r="31" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E31" s="19">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="24"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="34"/>
+      <c r="V31" s="29"/>
+    </row>
+    <row r="32" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E32" s="19">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="23"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="34"/>
+      <c r="V32" s="29"/>
+    </row>
+    <row r="33" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E33" s="19">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="F33" s="26"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="23"/>
+    </row>
+    <row r="34" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E34" s="19">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="27"/>
+      <c r="V34" s="23"/>
+    </row>
+    <row r="35" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E35" s="19">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="67"/>
+      <c r="U35" s="27"/>
+      <c r="V35" s="29"/>
+    </row>
+    <row r="36" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E36" s="19">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="23"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="20"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="67"/>
+      <c r="U36" s="27"/>
+      <c r="V36" s="29"/>
+    </row>
+    <row r="37" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E37" s="19">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F37" s="20"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="23"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="27"/>
+      <c r="V37" s="23"/>
+    </row>
+    <row r="38" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E38" s="19">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="20"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="28"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="67"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="29"/>
+    </row>
+    <row r="39" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E39" s="19">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="F39" s="20"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="23"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="27"/>
+      <c r="V39" s="23"/>
+    </row>
+    <row r="40" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E40" s="19">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="20"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="28"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="67"/>
+      <c r="U40" s="27"/>
+      <c r="V40" s="23"/>
+    </row>
+    <row r="41" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E41" s="19">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="F41" s="20"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="23"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="20"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="28"/>
+      <c r="S41" s="29"/>
+      <c r="T41" s="67"/>
+      <c r="U41" s="27"/>
+      <c r="V41" s="23"/>
+    </row>
+    <row r="42" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E42" s="19">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="24"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="27"/>
+      <c r="V42" s="23"/>
+    </row>
+    <row r="43" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E43" s="19">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="F43" s="20"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="20"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="28"/>
+      <c r="S43" s="29"/>
+      <c r="T43" s="67"/>
+      <c r="U43" s="27"/>
+      <c r="V43" s="23"/>
+    </row>
+    <row r="44" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E44" s="19">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="F44" s="26"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="23"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="34"/>
+      <c r="V44" s="23"/>
+    </row>
+    <row r="45" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E45" s="19">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="F45" s="20"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="23"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="20"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="28"/>
+      <c r="S45" s="29"/>
+      <c r="T45" s="67"/>
+      <c r="U45" s="27"/>
+      <c r="V45" s="29"/>
+    </row>
+    <row r="46" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E46" s="19">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="F46" s="26"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="23"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="28"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="34"/>
+      <c r="V46" s="23"/>
+    </row>
+    <row r="47" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E47" s="19">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F47" s="26"/>
+      <c r="G47" s="21"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="23"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="34"/>
+      <c r="V47" s="23"/>
+    </row>
+    <row r="48" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E48" s="19">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="F48" s="26"/>
+      <c r="G48" s="21"/>
+      <c r="H48" s="21"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="34"/>
+      <c r="V48" s="23"/>
+    </row>
+    <row r="49" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E49" s="19">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="F49" s="26"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="23"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="34"/>
+      <c r="V49" s="23"/>
+    </row>
+    <row r="50" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E50" s="36">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="F50" s="48"/>
+      <c r="G50" s="45"/>
+      <c r="H50" s="45"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="45"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="45"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="48"/>
+      <c r="P50" s="45"/>
+      <c r="Q50" s="45"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="61"/>
+      <c r="U50" s="50"/>
+      <c r="V50" s="43"/>
+    </row>
+    <row r="51" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E51" s="36">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="F51" s="48"/>
+      <c r="G51" s="45"/>
+      <c r="H51" s="45"/>
+      <c r="I51" s="43"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="45"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="45"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="48"/>
+      <c r="P51" s="45"/>
+      <c r="Q51" s="45"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="61"/>
+      <c r="U51" s="50"/>
+      <c r="V51" s="43"/>
+    </row>
+    <row r="52" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E52" s="36">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="F52" s="48"/>
+      <c r="G52" s="45"/>
+      <c r="H52" s="45"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="45"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="48"/>
+      <c r="P52" s="45"/>
+      <c r="Q52" s="45"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="61"/>
+      <c r="U52" s="50"/>
+      <c r="V52" s="43"/>
+    </row>
+    <row r="53" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E53" s="36">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="F53" s="48"/>
+      <c r="G53" s="45"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="45"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="48"/>
+      <c r="P53" s="45"/>
+      <c r="Q53" s="45"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="50"/>
+      <c r="V53" s="43"/>
+    </row>
+    <row r="54" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E54" s="36">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="F54" s="48"/>
+      <c r="G54" s="45"/>
+      <c r="H54" s="45"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="45"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="45"/>
+      <c r="Q54" s="45"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="61"/>
+      <c r="U54" s="50"/>
+      <c r="V54" s="43"/>
+    </row>
+    <row r="55" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E55" s="36">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="F55" s="48"/>
+      <c r="G55" s="45"/>
+      <c r="H55" s="45"/>
+      <c r="I55" s="43"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="45"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="45"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="48"/>
+      <c r="P55" s="45"/>
+      <c r="Q55" s="45"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="61"/>
+      <c r="U55" s="50"/>
+      <c r="V55" s="43"/>
+    </row>
+    <row r="56" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E56" s="36">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="F56" s="48"/>
+      <c r="G56" s="45"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="45"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="48"/>
+      <c r="P56" s="45"/>
+      <c r="Q56" s="45"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="61"/>
+      <c r="U56" s="50"/>
+      <c r="V56" s="43"/>
+    </row>
+    <row r="57" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E57" s="36">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F57" s="48"/>
+      <c r="G57" s="45"/>
+      <c r="H57" s="45"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="61"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="45"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="48"/>
+      <c r="P57" s="45"/>
+      <c r="Q57" s="45"/>
+      <c r="R57" s="44"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="61"/>
+      <c r="U57" s="50"/>
+      <c r="V57" s="43"/>
+    </row>
+    <row r="58" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E58" s="36">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="F58" s="48"/>
+      <c r="G58" s="45"/>
+      <c r="H58" s="45"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="61"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="45"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="45"/>
+      <c r="Q58" s="45"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="61"/>
+      <c r="U58" s="50"/>
+      <c r="V58" s="43"/>
+    </row>
+    <row r="59" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E59" s="36">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="F59" s="48"/>
+      <c r="G59" s="45"/>
+      <c r="H59" s="45"/>
+      <c r="I59" s="43"/>
+      <c r="J59" s="61"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="48"/>
+      <c r="P59" s="45"/>
+      <c r="Q59" s="45"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="61"/>
+      <c r="U59" s="50"/>
+      <c r="V59" s="43"/>
+    </row>
+    <row r="60" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E60" s="36">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="F60" s="48"/>
+      <c r="G60" s="45"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="61"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="45"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="48"/>
+      <c r="P60" s="45"/>
+      <c r="Q60" s="45"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="61"/>
+      <c r="U60" s="50"/>
+      <c r="V60" s="43"/>
+    </row>
+    <row r="61" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E61" s="36">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="F61" s="48"/>
+      <c r="G61" s="45"/>
+      <c r="H61" s="45"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="61"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="45"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="48"/>
+      <c r="P61" s="45"/>
+      <c r="Q61" s="45"/>
+      <c r="R61" s="44"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="61"/>
+      <c r="U61" s="50"/>
+      <c r="V61" s="43"/>
+    </row>
+    <row r="62" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E62" s="36">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="F62" s="48"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="61"/>
+      <c r="K62" s="45"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="45"/>
+      <c r="N62" s="41"/>
+      <c r="O62" s="48"/>
+      <c r="P62" s="45"/>
+      <c r="Q62" s="45"/>
+      <c r="R62" s="44"/>
+      <c r="S62" s="43"/>
+      <c r="T62" s="61"/>
+      <c r="U62" s="50"/>
+      <c r="V62" s="43"/>
+    </row>
+    <row r="63" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E63" s="36">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="F63" s="48"/>
+      <c r="G63" s="45"/>
+      <c r="H63" s="45"/>
+      <c r="I63" s="43"/>
+      <c r="J63" s="61"/>
+      <c r="K63" s="45"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="45"/>
+      <c r="N63" s="41"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="45"/>
+      <c r="Q63" s="45"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="61"/>
+      <c r="U63" s="50"/>
+      <c r="V63" s="43"/>
+    </row>
+    <row r="64" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E64" s="36">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="F64" s="48"/>
+      <c r="G64" s="45"/>
+      <c r="H64" s="45"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="61"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="45"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="48"/>
+      <c r="P64" s="45"/>
+      <c r="Q64" s="45"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="61"/>
+      <c r="U64" s="50"/>
+      <c r="V64" s="43"/>
+    </row>
+    <row r="65" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E65" s="36">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="F65" s="48"/>
+      <c r="G65" s="45"/>
+      <c r="H65" s="45"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="61"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="45"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="48"/>
+      <c r="P65" s="45"/>
+      <c r="Q65" s="45"/>
+      <c r="R65" s="44"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="61"/>
+      <c r="U65" s="50"/>
+      <c r="V65" s="43"/>
+    </row>
+    <row r="66" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E66" s="36">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="F66" s="48"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="61"/>
+      <c r="K66" s="45"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="45"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="48"/>
+      <c r="P66" s="45"/>
+      <c r="Q66" s="45"/>
+      <c r="R66" s="44"/>
+      <c r="S66" s="43"/>
+      <c r="T66" s="61"/>
+      <c r="U66" s="50"/>
+      <c r="V66" s="43"/>
+    </row>
+    <row r="67" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E67" s="36">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="F67" s="48"/>
+      <c r="G67" s="45"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="43"/>
+      <c r="J67" s="61"/>
+      <c r="K67" s="45"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="45"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="48"/>
+      <c r="P67" s="45"/>
+      <c r="Q67" s="45"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="43"/>
+      <c r="T67" s="61"/>
+      <c r="U67" s="50"/>
+      <c r="V67" s="43"/>
+    </row>
+    <row r="68" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E68" s="36">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="F68" s="48"/>
+      <c r="G68" s="45"/>
+      <c r="H68" s="45"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="61"/>
+      <c r="K68" s="45"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="45"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="48"/>
+      <c r="P68" s="45"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="61"/>
+      <c r="U68" s="50"/>
+      <c r="V68" s="43"/>
+    </row>
+    <row r="69" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E69" s="36">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="F69" s="48"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="61"/>
+      <c r="K69" s="45"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="45"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="48"/>
+      <c r="P69" s="45"/>
+      <c r="Q69" s="45"/>
+      <c r="R69" s="44"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="61"/>
+      <c r="U69" s="50"/>
+      <c r="V69" s="43"/>
+    </row>
+    <row r="70" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E70" s="36">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="F70" s="48"/>
+      <c r="G70" s="45"/>
+      <c r="H70" s="45"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="61"/>
+      <c r="K70" s="45"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="45"/>
+      <c r="N70" s="41"/>
+      <c r="O70" s="48"/>
+      <c r="P70" s="45"/>
+      <c r="Q70" s="45"/>
+      <c r="R70" s="44"/>
+      <c r="S70" s="43"/>
+      <c r="T70" s="61"/>
+      <c r="U70" s="50"/>
+      <c r="V70" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E5:V5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>